--- a/TIMESHEET/TimeSheet.xlsx
+++ b/TIMESHEET/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/Documents/3dejaar/DOSSIER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/CODE/CMP3_1617/TIMESHEET/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>2u</t>
+  </si>
+  <si>
+    <t>Milestone 2 pushen + details veranderen aan HTML5 template</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,18 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="21">
+        <v>42687</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
